--- a/file/2/최저임금데이터_df.xlsx
+++ b/file/2/최저임금데이터_df.xlsx
@@ -25,10 +25,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>min_wage_for_time(dollar)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>min_wage_rank</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -142,6 +138,10 @@
   </si>
   <si>
     <t>Australia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>min_wage</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -480,7 +480,7 @@
   <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -490,15 +490,15 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" s="1">
         <v>1.1000000000000001</v>
@@ -510,7 +510,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" s="1">
         <v>2.1</v>
@@ -522,7 +522,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" s="1">
         <v>2.6</v>
@@ -534,7 +534,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" s="1">
         <v>3</v>
@@ -546,7 +546,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" s="1">
         <v>3.1</v>
@@ -558,7 +558,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" s="1">
         <v>3.9</v>
@@ -570,7 +570,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" s="1">
         <v>3.9</v>
@@ -582,7 +582,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9" s="1">
         <v>4.0999999999999996</v>
@@ -594,7 +594,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" s="1">
         <v>4.0999999999999996</v>
@@ -606,7 +606,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11" s="1">
         <v>4.0999999999999996</v>
@@ -618,7 +618,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12" s="1">
         <v>4.7</v>
@@ -630,7 +630,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B13" s="1">
         <v>5</v>
@@ -642,7 +642,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14" s="1">
         <v>6.5</v>
@@ -654,7 +654,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B15" s="1">
         <v>7.1</v>
@@ -666,7 +666,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B16" s="1">
         <v>7.1</v>
@@ -678,7 +678,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B17" s="1">
         <v>7.3</v>
@@ -690,7 +690,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B18" s="1">
         <v>8.1999999999999993</v>
@@ -702,7 +702,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B19" s="1">
         <v>8.6</v>
@@ -714,7 +714,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B20" s="1">
         <v>10.5</v>
@@ -726,7 +726,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B21" s="1">
         <v>10.9</v>
@@ -738,7 +738,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B22" s="1">
         <v>11.1</v>
@@ -750,7 +750,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23" s="1">
         <v>11.1</v>
@@ -762,7 +762,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B24" s="1">
         <v>11.2</v>
@@ -774,7 +774,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B25" s="1">
         <v>11.4</v>
@@ -786,7 +786,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B26" s="1">
         <v>11.5</v>
@@ -798,7 +798,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B27" s="1">
         <v>13.3</v>
@@ -810,7 +810,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B28" s="1">
         <v>13.9</v>
@@ -822,7 +822,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B29" s="1">
         <v>14.5</v>
